--- a/Companies/IT Services & Consulting/Wipro Ltd/Pruned_Excel/2_Dec14_Dec15.xlsx
+++ b/Companies/IT Services & Consulting/Wipro Ltd/Pruned_Excel/2_Dec14_Dec15.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '14</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '15</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '15</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '15</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '15</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '15</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '15</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '15</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '14</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>10,400.60</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10,617.50</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10,775.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11,036.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>11,206.90</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11,036.90</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10,775.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10,617.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10,400.60</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>11206.9</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>10400.6</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>10807.46</v>
       </c>
     </row>
     <row r="3">
@@ -545,12 +513,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>120.60</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -560,22 +528,13 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>120.60</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>120.6</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>77.3</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>10,521.20</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10,651.50</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10,775.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11,036.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>11,206.90</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>11,036.90</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10,775.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10,651.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10,521.20</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>11206.9</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>10521.2</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>10838.38</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,7 +585,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,17 +605,8 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.35</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>636.30</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>722.10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>709.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>586.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>643.30</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>586.10</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>709.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>722.10</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>636.30</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>722.1</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>586.1</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>659.48</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>-166.20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-45.60</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-84.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-16.40</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-84.10</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.80</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-45.60</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-166.20</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-166.2</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-60.3</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>4,974.60</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4,977.70</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5,182.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5,327.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>5,334.00</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5,327.20</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5,182.90</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4,977.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4,974.60</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>5334</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>4974.6</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>5159.280000000001</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>200.40</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>200.90</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>200.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>207.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>230.40</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>207.00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>200.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>200.90</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>200.40</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>200.4</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>207.82</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>2,699.50</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2,554.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,547.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2,734.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2,981.30</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2,734.20</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2,547.30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2,554.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2,699.50</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>2981.3</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>2547.3</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2703.26</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>2,176.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,242.40</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2,124.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2,266.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2,034.30</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2,266.50</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2,124.30</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2,242.40</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2,176.00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>2266.5</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>2034.3</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>2168.7</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>557.60</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>578.80</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>648.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>688.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>690.00</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>688.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>648.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>578.80</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>557.60</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>690</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>557.6</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>632.5</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2,733.60</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2,821.20</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2,772.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2,954.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,724.30</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,954.50</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2,772.40</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2,821.20</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2,733.60</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>2954.5</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>2724.3</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2801.2</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>145.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>130.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>188.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>129.90</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>188.20</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>130.60</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>86.60</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>145.00</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>188.2</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>136.06</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>2,588.60</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2,734.60</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2,641.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2,766.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>2,594.40</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2,766.30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2,641.80</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2,734.60</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2,588.60</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>2766.3</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>2588.6</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>2665.14</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2,588.60</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,734.60</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,641.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,766.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,594.40</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2,766.30</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,641.80</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,734.60</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2,588.60</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>2766.3</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2588.6</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2665.14</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>596.30</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>593.00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>578.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>613.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>583.30</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>613.20</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>578.80</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>593.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>596.30</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>613.2</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>578.8</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>592.92</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1,992.30</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,141.60</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2,063.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2,153.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2,011.10</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2,153.10</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2,063.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2,141.60</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1,992.30</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>2153.1</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>1992.3</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>2072.22</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>1,992.30</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,141.60</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2,063.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2,153.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2,011.10</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2,153.10</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2,063.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2,141.60</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1,992.30</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>2153.1</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>1992.3</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>2072.22</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>493.70</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>493.70</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>493.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>494.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>494.10</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>494.00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>493.80</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>493.70</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>493.70</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>493.7</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>493.86</v>
       </c>
     </row>
     <row r="23">
@@ -1291,37 +1097,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>28,862.70</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>34,127.90</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>28,862.70</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>34127.9</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>28862.7</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>31495.3</v>
       </c>
     </row>
     <row r="24"/>
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>8.19</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>8.77</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>8.72</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>8.437999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>8.17</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>8.38</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>8.412000000000001</v>
       </c>
     </row>
     <row r="28"/>
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>8.19</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>8.77</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>8.72</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>8.437999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>8.17</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>8.38</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>8.412000000000001</v>
       </c>
     </row>
     <row r="32"/>
@@ -1520,12 +1281,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>60.84</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>60.86</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1535,22 +1296,13 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>60.86</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>60.84</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>60.89</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>60.84</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>60.86333333333334</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1561,12 +1313,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>25.14</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>25.14</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1576,22 +1328,13 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>25.14</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>25.14</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>25.14</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>25.14333333333333</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="36"/>
@@ -1626,12 +1369,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>181.20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>181.20</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1641,22 +1384,13 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>181.20</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>181.20</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>181.2</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>181.2</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>181.2</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1667,12 +1401,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1682,22 +1416,13 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>100</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1708,12 +1433,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>74.86</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>74.86</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1723,22 +1448,13 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>74.86</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>74.86</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>74.86</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>74.84999999999999</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>74.85666666666667</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
   </sheetData>
